--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/SOUTH_DAKOTA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/SOUTH_DAKOTA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -750,7 +750,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C39">
@@ -942,8 +942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -961,7 +960,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C43">
@@ -1070,7 +1069,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C51">
@@ -1161,7 +1160,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C58">
@@ -1174,7 +1173,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C59">
@@ -1187,7 +1186,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C60">
@@ -1218,7 +1217,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C62">
@@ -1244,7 +1243,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C64">
@@ -1283,7 +1282,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C67">
@@ -1296,7 +1295,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C68">
@@ -1322,7 +1321,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C70">
@@ -1335,7 +1334,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C71">
@@ -1348,7 +1347,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C72">
@@ -1431,7 +1430,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C78">
@@ -1444,7 +1443,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C79">
@@ -1457,7 +1456,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C80">
@@ -1553,7 +1552,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C87">
@@ -1579,7 +1578,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C89">
@@ -1605,7 +1604,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C91">
@@ -1631,7 +1630,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C93">
@@ -1963,7 +1962,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C117">
@@ -2080,7 +2079,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C126">
@@ -2246,7 +2245,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C138">
@@ -2316,7 +2315,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C143">
@@ -2549,7 +2548,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C159">
@@ -2606,7 +2605,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C163">
@@ -2645,7 +2644,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C166">
@@ -2658,7 +2657,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C167">
@@ -2684,7 +2683,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C169">
@@ -2697,7 +2696,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C170">
@@ -2814,41 +2813,6 @@
       </c>
       <c r="D178">
         <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/SOUTH_DAKOTA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/SOUTH_DAKOTA_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Atarjea</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>León</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1358,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1371,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Xochihuehuetlán</t>
@@ -1384,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1498,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Etzatlán</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Guachinango</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Jamay</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Poncitlán</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1698,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1724,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1737,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1763,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -1776,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -1789,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1802,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1815,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1828,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1859,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1872,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1885,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1916,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -1929,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1942,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1973,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -1986,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -1999,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -2012,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>San Juan Quiotepec</t>
@@ -2025,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -2038,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -2051,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -2064,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Zapotitlán Palmas</t>
@@ -2077,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -2090,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2121,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -2134,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -2147,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2160,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -2173,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -2186,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -2199,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2212,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2225,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2256,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2287,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -2300,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -2313,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -2326,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>San Vicente Tancuayalab</t>
@@ -2339,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -2352,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2383,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2414,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -2427,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2458,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -2471,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2502,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Padilla</t>
@@ -2515,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2528,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2559,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2590,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -2603,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -2616,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -2629,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -2642,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2655,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2668,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -2681,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -2694,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -2707,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -2720,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2751,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -2764,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Luis Moya</t>
@@ -2777,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2790,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Total</t>
